--- a/data/pca/factorExposure/factorExposure_2012-04-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-04-23.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01683700779152132</v>
+        <v>-0.01663905308776407</v>
       </c>
       <c r="C2">
-        <v>-0.03515326679503705</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.0289229434907175</v>
+      </c>
+      <c r="D2">
+        <v>-0.003416927773578171</v>
+      </c>
+      <c r="E2">
+        <v>0.009987247836192153</v>
+      </c>
+      <c r="F2">
+        <v>0.01031596412051454</v>
+      </c>
+      <c r="G2">
+        <v>-0.002150008115910229</v>
+      </c>
+      <c r="H2">
+        <v>-0.05324399236938088</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.07632616148320018</v>
+        <v>-0.08735619664763611</v>
       </c>
       <c r="C4">
-        <v>-0.05509498724362977</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.03791632558871798</v>
+      </c>
+      <c r="D4">
+        <v>-0.06833066995101034</v>
+      </c>
+      <c r="E4">
+        <v>0.009734291616345531</v>
+      </c>
+      <c r="F4">
+        <v>0.03090798418399942</v>
+      </c>
+      <c r="G4">
+        <v>-0.007435168842668422</v>
+      </c>
+      <c r="H4">
+        <v>0.04671075143635066</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1068351856195473</v>
+        <v>-0.1183362264920802</v>
       </c>
       <c r="C6">
-        <v>-0.05392527652455988</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.03290475604818136</v>
+      </c>
+      <c r="D6">
+        <v>-0.01052731778978151</v>
+      </c>
+      <c r="E6">
+        <v>-0.003084268475333615</v>
+      </c>
+      <c r="F6">
+        <v>0.05869335841261968</v>
+      </c>
+      <c r="G6">
+        <v>-0.02236331332379162</v>
+      </c>
+      <c r="H6">
+        <v>-0.07888766102225399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.0500707501483619</v>
+        <v>-0.06288519958819359</v>
       </c>
       <c r="C7">
-        <v>-0.02747455563107172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.01900055776544855</v>
+      </c>
+      <c r="D7">
+        <v>-0.04453178625801275</v>
+      </c>
+      <c r="E7">
+        <v>0.03078302593380349</v>
+      </c>
+      <c r="F7">
+        <v>0.04004753537500691</v>
+      </c>
+      <c r="G7">
+        <v>0.0381891124588665</v>
+      </c>
+      <c r="H7">
+        <v>0.02684933185534846</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.03626220643205035</v>
+        <v>-0.0411669217620337</v>
       </c>
       <c r="C8">
-        <v>-0.01171478955229163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.006822550241337686</v>
+      </c>
+      <c r="D8">
+        <v>-0.03194256457737876</v>
+      </c>
+      <c r="E8">
+        <v>0.02598638513755495</v>
+      </c>
+      <c r="F8">
+        <v>0.04428931958709648</v>
+      </c>
+      <c r="G8">
+        <v>-0.03732602631575248</v>
+      </c>
+      <c r="H8">
+        <v>0.01037134767908065</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.06838913358958386</v>
+        <v>-0.07795763621254578</v>
       </c>
       <c r="C9">
-        <v>-0.0446014658148715</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.02818398686260293</v>
+      </c>
+      <c r="D9">
+        <v>-0.06394714519238644</v>
+      </c>
+      <c r="E9">
+        <v>0.02936415153893851</v>
+      </c>
+      <c r="F9">
+        <v>0.03543974914026727</v>
+      </c>
+      <c r="G9">
+        <v>-0.01085044792528821</v>
+      </c>
+      <c r="H9">
+        <v>0.06029989580814731</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.02978186061378706</v>
+        <v>-0.03693593233030917</v>
       </c>
       <c r="C10">
-        <v>-0.03471363737058592</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.04247836117091217</v>
+      </c>
+      <c r="D10">
+        <v>0.1732314380106842</v>
+      </c>
+      <c r="E10">
+        <v>0.05502395210169275</v>
+      </c>
+      <c r="F10">
+        <v>0.04398556278600677</v>
+      </c>
+      <c r="G10">
+        <v>0.03817758446694056</v>
+      </c>
+      <c r="H10">
+        <v>-0.03339524847634018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.07154082686862312</v>
+        <v>-0.07594511323798901</v>
       </c>
       <c r="C11">
-        <v>-0.0459943946607646</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.02647559823409599</v>
+      </c>
+      <c r="D11">
+        <v>-0.06100512202219712</v>
+      </c>
+      <c r="E11">
+        <v>-0.006673061345601083</v>
+      </c>
+      <c r="F11">
+        <v>0.02407800036159905</v>
+      </c>
+      <c r="G11">
+        <v>-0.001906998236289513</v>
+      </c>
+      <c r="H11">
+        <v>0.09626732704335222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.0577604792135049</v>
+        <v>-0.06536221786849389</v>
       </c>
       <c r="C12">
-        <v>-0.04993179697338242</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.03473537583853301</v>
+      </c>
+      <c r="D12">
+        <v>-0.04849242759079623</v>
+      </c>
+      <c r="E12">
+        <v>0.01298044033390434</v>
+      </c>
+      <c r="F12">
+        <v>0.01772472604724959</v>
+      </c>
+      <c r="G12">
+        <v>-0.004597603358628663</v>
+      </c>
+      <c r="H12">
+        <v>0.05783518844652154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.06134208641363685</v>
+        <v>-0.06640870690853494</v>
       </c>
       <c r="C13">
-        <v>-0.04226232917419472</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.02568934507481731</v>
+      </c>
+      <c r="D13">
+        <v>-0.04397581788621777</v>
+      </c>
+      <c r="E13">
+        <v>0.01029420132433831</v>
+      </c>
+      <c r="F13">
+        <v>0.00374679498272656</v>
+      </c>
+      <c r="G13">
+        <v>-0.000654619183058092</v>
+      </c>
+      <c r="H13">
+        <v>0.06245215960832454</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03240930405226069</v>
+        <v>-0.04030975889154394</v>
       </c>
       <c r="C14">
-        <v>-0.03021088029547004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.02576153319814972</v>
+      </c>
+      <c r="D14">
+        <v>-0.005676870261951078</v>
+      </c>
+      <c r="E14">
+        <v>0.02294877331080501</v>
+      </c>
+      <c r="F14">
+        <v>0.01638885618445622</v>
+      </c>
+      <c r="G14">
+        <v>-0.01788869194680646</v>
+      </c>
+      <c r="H14">
+        <v>0.05942272623521937</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.03895096043390579</v>
+        <v>-0.03934955133396479</v>
       </c>
       <c r="C15">
-        <v>-0.0108396362685342</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.003153384890231069</v>
+      </c>
+      <c r="D15">
+        <v>-0.005660290441155131</v>
+      </c>
+      <c r="E15">
+        <v>0.04466195317243663</v>
+      </c>
+      <c r="F15">
+        <v>-0.00511955137422786</v>
+      </c>
+      <c r="G15">
+        <v>-0.02817144634526835</v>
+      </c>
+      <c r="H15">
+        <v>0.0446380303616645</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.06080213106730069</v>
+        <v>-0.06868877142142123</v>
       </c>
       <c r="C16">
-        <v>-0.04163232835214428</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.0269124490617761</v>
+      </c>
+      <c r="D16">
+        <v>-0.06101167661021822</v>
+      </c>
+      <c r="E16">
+        <v>0.005661244820533733</v>
+      </c>
+      <c r="F16">
+        <v>0.02296648592656123</v>
+      </c>
+      <c r="G16">
+        <v>-0.0007404497482218014</v>
+      </c>
+      <c r="H16">
+        <v>0.061129475532416</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06500576436022446</v>
+        <v>-0.06476604854604064</v>
       </c>
       <c r="C20">
-        <v>-0.03190050607907863</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.01349090178542363</v>
+      </c>
+      <c r="D20">
+        <v>-0.04367997252160257</v>
+      </c>
+      <c r="E20">
+        <v>0.02493841589788725</v>
+      </c>
+      <c r="F20">
+        <v>0.01986227793951601</v>
+      </c>
+      <c r="G20">
+        <v>-0.009372222925341201</v>
+      </c>
+      <c r="H20">
+        <v>0.06211013996177539</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02391402953927528</v>
+        <v>-0.02285836120610882</v>
       </c>
       <c r="C21">
-        <v>0.005530187352984905</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.01325545802407646</v>
+      </c>
+      <c r="D21">
+        <v>-0.03899318858912136</v>
+      </c>
+      <c r="E21">
+        <v>0.06960288832865545</v>
+      </c>
+      <c r="F21">
+        <v>-0.02562571733180479</v>
+      </c>
+      <c r="G21">
+        <v>-0.01093302188222181</v>
+      </c>
+      <c r="H21">
+        <v>-0.04745514908748398</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.0744428242701463</v>
+        <v>-0.06767744217824921</v>
       </c>
       <c r="C22">
-        <v>-0.06147234809951299</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.03539593084344152</v>
+      </c>
+      <c r="D22">
+        <v>-0.09332246902405154</v>
+      </c>
+      <c r="E22">
+        <v>0.5920843283512423</v>
+      </c>
+      <c r="F22">
+        <v>-0.2017358847803613</v>
+      </c>
+      <c r="G22">
+        <v>0.04305237857668646</v>
+      </c>
+      <c r="H22">
+        <v>-0.1689180890190271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.07541005531596887</v>
+        <v>-0.06827653755288204</v>
       </c>
       <c r="C23">
-        <v>-0.06039028153804589</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.03409801605466671</v>
+      </c>
+      <c r="D23">
+        <v>-0.09432179854465186</v>
+      </c>
+      <c r="E23">
+        <v>0.5913953753533201</v>
+      </c>
+      <c r="F23">
+        <v>-0.200770097858205</v>
+      </c>
+      <c r="G23">
+        <v>0.04127617747699862</v>
+      </c>
+      <c r="H23">
+        <v>-0.1648287108511083</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.07006991799899021</v>
+        <v>-0.07882661516524854</v>
       </c>
       <c r="C24">
-        <v>-0.04958266218313642</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.03238044766488989</v>
+      </c>
+      <c r="D24">
+        <v>-0.05930589394311688</v>
+      </c>
+      <c r="E24">
+        <v>0.01331599849518132</v>
+      </c>
+      <c r="F24">
+        <v>0.03192222906261639</v>
+      </c>
+      <c r="G24">
+        <v>-0.01029134250095398</v>
+      </c>
+      <c r="H24">
+        <v>0.06901561126594265</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.07068676193126819</v>
+        <v>-0.07682132111871745</v>
       </c>
       <c r="C25">
-        <v>-0.05541783760165499</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.03688928584008572</v>
+      </c>
+      <c r="D25">
+        <v>-0.05262405875519901</v>
+      </c>
+      <c r="E25">
+        <v>0.01537697131470941</v>
+      </c>
+      <c r="F25">
+        <v>0.02576838594948012</v>
+      </c>
+      <c r="G25">
+        <v>-0.02207534842437695</v>
+      </c>
+      <c r="H25">
+        <v>0.07277831808929297</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.0460182657631871</v>
+        <v>-0.04746817688899256</v>
       </c>
       <c r="C26">
-        <v>-0.01000682314744413</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.0007128380852400244</v>
+      </c>
+      <c r="D26">
+        <v>-0.02085588786517837</v>
+      </c>
+      <c r="E26">
+        <v>0.04338597635519347</v>
+      </c>
+      <c r="F26">
+        <v>0.02062623334594546</v>
+      </c>
+      <c r="G26">
+        <v>0.0004456260455890515</v>
+      </c>
+      <c r="H26">
+        <v>0.06078060896320771</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05764278084268345</v>
+        <v>-0.06941441712843022</v>
       </c>
       <c r="C28">
-        <v>-0.07383922880267892</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.08274964057018894</v>
+      </c>
+      <c r="D28">
+        <v>0.3073392971514786</v>
+      </c>
+      <c r="E28">
+        <v>0.0364894894677935</v>
+      </c>
+      <c r="F28">
+        <v>0.05231445876878661</v>
+      </c>
+      <c r="G28">
+        <v>-0.02279294696111842</v>
+      </c>
+      <c r="H28">
+        <v>-0.03758827944913697</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.04064704026367616</v>
+        <v>-0.04761853107828218</v>
       </c>
       <c r="C29">
-        <v>-0.03052874503345951</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.02378810675457249</v>
+      </c>
+      <c r="D29">
+        <v>-0.005954789822994404</v>
+      </c>
+      <c r="E29">
+        <v>0.04854955111601906</v>
+      </c>
+      <c r="F29">
+        <v>0.00205845396124755</v>
+      </c>
+      <c r="G29">
+        <v>-0.002559272734959673</v>
+      </c>
+      <c r="H29">
+        <v>0.08527634737932439</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1255066415952639</v>
+        <v>-0.1337633746706595</v>
       </c>
       <c r="C30">
-        <v>-0.09341355080583502</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.05856748910326325</v>
+      </c>
+      <c r="D30">
+        <v>-0.08603656020073068</v>
+      </c>
+      <c r="E30">
+        <v>0.0455991090450637</v>
+      </c>
+      <c r="F30">
+        <v>0.004129164409542482</v>
+      </c>
+      <c r="G30">
+        <v>-0.04600060854111795</v>
+      </c>
+      <c r="H30">
+        <v>-0.01535906737685495</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04207165191776243</v>
+        <v>-0.04784608305612987</v>
       </c>
       <c r="C31">
-        <v>-0.01887768604254329</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01071929478293512</v>
+      </c>
+      <c r="D31">
+        <v>-0.0248301606255917</v>
+      </c>
+      <c r="E31">
+        <v>0.02760071376547564</v>
+      </c>
+      <c r="F31">
+        <v>0.01223160216818594</v>
+      </c>
+      <c r="G31">
+        <v>0.01549906616020005</v>
+      </c>
+      <c r="H31">
+        <v>0.07413720044462574</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03717397023391732</v>
+        <v>-0.03691880567898744</v>
       </c>
       <c r="C32">
-        <v>-0.02113877079012018</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.01424117729694622</v>
+      </c>
+      <c r="D32">
+        <v>-0.009875135169642163</v>
+      </c>
+      <c r="E32">
+        <v>0.06648651729252827</v>
+      </c>
+      <c r="F32">
+        <v>-0.008395904109855221</v>
+      </c>
+      <c r="G32">
+        <v>-0.04173492979192812</v>
+      </c>
+      <c r="H32">
+        <v>0.07140511991716675</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.08126966618671477</v>
+        <v>-0.09386211316473275</v>
       </c>
       <c r="C33">
-        <v>-0.04311442705210242</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.02549455114376466</v>
+      </c>
+      <c r="D33">
+        <v>-0.05333610324407406</v>
+      </c>
+      <c r="E33">
+        <v>0.01582319048481573</v>
+      </c>
+      <c r="F33">
+        <v>0.0004099895503204627</v>
+      </c>
+      <c r="G33">
+        <v>0.00840343512817346</v>
+      </c>
+      <c r="H33">
+        <v>0.07369200501044233</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.05564109217703053</v>
+        <v>-0.06037129326805039</v>
       </c>
       <c r="C34">
-        <v>-0.02756778944911972</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.01273539895163867</v>
+      </c>
+      <c r="D34">
+        <v>-0.05241548231558171</v>
+      </c>
+      <c r="E34">
+        <v>0.006943914937945567</v>
+      </c>
+      <c r="F34">
+        <v>0.01468090103889267</v>
+      </c>
+      <c r="G34">
+        <v>-0.01019188286645304</v>
+      </c>
+      <c r="H34">
+        <v>0.05923235249814277</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03784612231419252</v>
+        <v>-0.04116420691829575</v>
       </c>
       <c r="C35">
-        <v>-0.009172464985972214</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.001702534667108073</v>
+      </c>
+      <c r="D35">
+        <v>-0.007681322937229978</v>
+      </c>
+      <c r="E35">
+        <v>0.01966318762918795</v>
+      </c>
+      <c r="F35">
+        <v>-0.01113504947649199</v>
+      </c>
+      <c r="G35">
+        <v>0.008721092849625599</v>
+      </c>
+      <c r="H35">
+        <v>0.03623195145648733</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02067822387058603</v>
+        <v>-0.02678657151873459</v>
       </c>
       <c r="C36">
-        <v>-0.0170518937252083</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.01284550955402894</v>
+      </c>
+      <c r="D36">
+        <v>-0.01449322281169594</v>
+      </c>
+      <c r="E36">
+        <v>0.04139129890500527</v>
+      </c>
+      <c r="F36">
+        <v>0.01577122891669204</v>
+      </c>
+      <c r="G36">
+        <v>0.006208090711874278</v>
+      </c>
+      <c r="H36">
+        <v>0.05496495640465961</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.04059814215437003</v>
+        <v>-0.04324611415472168</v>
       </c>
       <c r="C38">
-        <v>-0.00363239129054631</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.002229757706546081</v>
+      </c>
+      <c r="D38">
+        <v>-0.01554933339912908</v>
+      </c>
+      <c r="E38">
+        <v>0.0599776362252086</v>
+      </c>
+      <c r="F38">
+        <v>-0.01798930918844091</v>
+      </c>
+      <c r="G38">
+        <v>-0.01700927707815296</v>
+      </c>
+      <c r="H38">
+        <v>0.02706053095283615</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.09407347270135986</v>
+        <v>-0.1047427855468005</v>
       </c>
       <c r="C39">
-        <v>-0.07280322053225276</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.0485483152385956</v>
+      </c>
+      <c r="D39">
+        <v>-0.06845181226089217</v>
+      </c>
+      <c r="E39">
+        <v>-0.009277856857953501</v>
+      </c>
+      <c r="F39">
+        <v>0.01156059527887342</v>
+      </c>
+      <c r="G39">
+        <v>-0.0343818135903643</v>
+      </c>
+      <c r="H39">
+        <v>0.0696784770020704</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.0737408648397139</v>
+        <v>-0.07261015794497325</v>
       </c>
       <c r="C40">
-        <v>-0.04044287586718869</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.020276300774456</v>
+      </c>
+      <c r="D40">
+        <v>-0.006988454656396604</v>
+      </c>
+      <c r="E40">
+        <v>0.0140166707187093</v>
+      </c>
+      <c r="F40">
+        <v>-0.05134813137723375</v>
+      </c>
+      <c r="G40">
+        <v>-0.03905451497088619</v>
+      </c>
+      <c r="H40">
+        <v>-0.05828048466305383</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.04007123532643322</v>
+        <v>-0.04378112895680485</v>
       </c>
       <c r="C41">
-        <v>-0.005742018311508246</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.001055611695446926</v>
+      </c>
+      <c r="D41">
+        <v>-0.03515436449469961</v>
+      </c>
+      <c r="E41">
+        <v>0.008933884470582769</v>
+      </c>
+      <c r="F41">
+        <v>-0.0132667505167097</v>
+      </c>
+      <c r="G41">
+        <v>-0.01541921800346523</v>
+      </c>
+      <c r="H41">
+        <v>0.0374322011070841</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.04667846939015476</v>
+        <v>-0.0566070141652085</v>
       </c>
       <c r="C43">
-        <v>-0.02530210920844769</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.01692404707675839</v>
+      </c>
+      <c r="D43">
+        <v>-0.02592027203132772</v>
+      </c>
+      <c r="E43">
+        <v>0.01759464601321551</v>
+      </c>
+      <c r="F43">
+        <v>0.01082657269656762</v>
+      </c>
+      <c r="G43">
+        <v>0.004627498939667325</v>
+      </c>
+      <c r="H43">
+        <v>0.05122462367472876</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09471725062763041</v>
+        <v>-0.09241596000341985</v>
       </c>
       <c r="C44">
-        <v>-0.09395015042509684</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.06276227443619585</v>
+      </c>
+      <c r="D44">
+        <v>-0.06732243506297547</v>
+      </c>
+      <c r="E44">
+        <v>0.08458778913890475</v>
+      </c>
+      <c r="F44">
+        <v>0.04443965944051205</v>
+      </c>
+      <c r="G44">
+        <v>-0.02588732480219729</v>
+      </c>
+      <c r="H44">
+        <v>0.02914491468069277</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02496988378860952</v>
+        <v>-0.03169868000992276</v>
       </c>
       <c r="C46">
-        <v>-0.01290455822891905</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.008965267110791876</v>
+      </c>
+      <c r="D46">
+        <v>-0.03309152811036496</v>
+      </c>
+      <c r="E46">
+        <v>0.02375463651361753</v>
+      </c>
+      <c r="F46">
+        <v>0.01612555576603683</v>
+      </c>
+      <c r="G46">
+        <v>-0.008946147694578646</v>
+      </c>
+      <c r="H46">
+        <v>0.03783870467106582</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.02714204636824097</v>
+        <v>-0.03571641653499519</v>
       </c>
       <c r="C47">
-        <v>-0.02470428759910185</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.01978444460308499</v>
+      </c>
+      <c r="D47">
+        <v>-0.0177002269608538</v>
+      </c>
+      <c r="E47">
+        <v>0.05087952579613331</v>
+      </c>
+      <c r="F47">
+        <v>0.01127939984423946</v>
+      </c>
+      <c r="G47">
+        <v>0.03812274560066283</v>
+      </c>
+      <c r="H47">
+        <v>0.03213627892989707</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.0315110389090825</v>
+        <v>-0.0370740882128868</v>
       </c>
       <c r="C48">
-        <v>-0.01563569240172786</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.008836787496965816</v>
+      </c>
+      <c r="D48">
+        <v>-0.02234673715208496</v>
+      </c>
+      <c r="E48">
+        <v>0.04414506080072007</v>
+      </c>
+      <c r="F48">
+        <v>0.0005796038323539464</v>
+      </c>
+      <c r="G48">
+        <v>-0.01222623868103193</v>
+      </c>
+      <c r="H48">
+        <v>0.05353130773642366</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1635514541966735</v>
+        <v>-0.1920963374463825</v>
       </c>
       <c r="C49">
-        <v>-0.06389935110950047</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.03644029940618396</v>
+      </c>
+      <c r="D49">
+        <v>-0.02706223453533068</v>
+      </c>
+      <c r="E49">
+        <v>-0.1354639659361137</v>
+      </c>
+      <c r="F49">
+        <v>0.06905218419581537</v>
+      </c>
+      <c r="G49">
+        <v>0.07922423371237453</v>
+      </c>
+      <c r="H49">
+        <v>-0.2247931546367409</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.03737963764650798</v>
+        <v>-0.04385908888985478</v>
       </c>
       <c r="C50">
-        <v>-0.02209917623323933</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.01504910018263052</v>
+      </c>
+      <c r="D50">
+        <v>-0.03345090228453879</v>
+      </c>
+      <c r="E50">
+        <v>0.05076130686883807</v>
+      </c>
+      <c r="F50">
+        <v>0.01145745011998901</v>
+      </c>
+      <c r="G50">
+        <v>0.01194406174762905</v>
+      </c>
+      <c r="H50">
+        <v>0.06918930091320759</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.025752659926863</v>
+        <v>-0.02827050981184346</v>
       </c>
       <c r="C51">
-        <v>-0.009720276476713556</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.006019035771423695</v>
+      </c>
+      <c r="D51">
+        <v>-0.02168622209134554</v>
+      </c>
+      <c r="E51">
+        <v>0.01771859816581654</v>
+      </c>
+      <c r="F51">
+        <v>0.01017458161899534</v>
+      </c>
+      <c r="G51">
+        <v>-0.004410107356258521</v>
+      </c>
+      <c r="H51">
+        <v>-0.001382866399618236</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1510198910626273</v>
+        <v>-0.1614834347145807</v>
       </c>
       <c r="C53">
-        <v>-0.08081872890523466</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.05126569695039971</v>
+      </c>
+      <c r="D53">
+        <v>-0.0220016747229848</v>
+      </c>
+      <c r="E53">
+        <v>-0.03392896110204443</v>
+      </c>
+      <c r="F53">
+        <v>0.01533378441006294</v>
+      </c>
+      <c r="G53">
+        <v>-0.006873415698501678</v>
+      </c>
+      <c r="H53">
+        <v>0.1435521627322706</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05563066798001078</v>
+        <v>-0.0567244339938834</v>
       </c>
       <c r="C54">
-        <v>-0.0236882119716131</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01131034603391974</v>
+      </c>
+      <c r="D54">
+        <v>-0.01925784230641213</v>
+      </c>
+      <c r="E54">
+        <v>0.04942167453392365</v>
+      </c>
+      <c r="F54">
+        <v>0.004939127416932344</v>
+      </c>
+      <c r="G54">
+        <v>-0.01944732910749554</v>
+      </c>
+      <c r="H54">
+        <v>0.06608580468361654</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09917245258285173</v>
+        <v>-0.1027232141006601</v>
       </c>
       <c r="C55">
-        <v>-0.05571900186185029</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.03540461262829067</v>
+      </c>
+      <c r="D55">
+        <v>-0.02575818674950302</v>
+      </c>
+      <c r="E55">
+        <v>0.01208459786579062</v>
+      </c>
+      <c r="F55">
+        <v>0.01388390683290569</v>
+      </c>
+      <c r="G55">
+        <v>-0.01779830345442677</v>
+      </c>
+      <c r="H55">
+        <v>0.1432689986896457</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1471532847097148</v>
+        <v>-0.1594526424285173</v>
       </c>
       <c r="C56">
-        <v>-0.092384463016639</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.06310035892916929</v>
+      </c>
+      <c r="D56">
+        <v>-0.01952843082379198</v>
+      </c>
+      <c r="E56">
+        <v>-0.03483856945916631</v>
+      </c>
+      <c r="F56">
+        <v>0.03088516198492754</v>
+      </c>
+      <c r="G56">
+        <v>-0.002106100645118908</v>
+      </c>
+      <c r="H56">
+        <v>0.1502507647480594</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1199486490401397</v>
+        <v>-0.09708587343302388</v>
       </c>
       <c r="C58">
-        <v>-0.003666339673191038</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.03539647405545198</v>
+      </c>
+      <c r="D58">
+        <v>-0.04396206066483466</v>
+      </c>
+      <c r="E58">
+        <v>0.1626963113371594</v>
+      </c>
+      <c r="F58">
+        <v>-0.0007364787716204935</v>
+      </c>
+      <c r="G58">
+        <v>0.06321322107617215</v>
+      </c>
+      <c r="H58">
+        <v>-0.128392497623505</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1178337773442318</v>
+        <v>-0.1408497467400686</v>
       </c>
       <c r="C59">
-        <v>-0.07880986266096233</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.08672143759382801</v>
+      </c>
+      <c r="D59">
+        <v>0.3621344584108935</v>
+      </c>
+      <c r="E59">
+        <v>0.04330571100021226</v>
+      </c>
+      <c r="F59">
+        <v>0.009892376797475821</v>
+      </c>
+      <c r="G59">
+        <v>0.04440844508790338</v>
+      </c>
+      <c r="H59">
+        <v>-0.001497723369920473</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2015234573033711</v>
+        <v>-0.2305437846228106</v>
       </c>
       <c r="C60">
-        <v>-0.1023938255294775</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.06768986618567679</v>
+      </c>
+      <c r="D60">
+        <v>-0.04015983163451434</v>
+      </c>
+      <c r="E60">
+        <v>-0.0796002718103041</v>
+      </c>
+      <c r="F60">
+        <v>0.06487131438688132</v>
+      </c>
+      <c r="G60">
+        <v>-0.00722943274321882</v>
+      </c>
+      <c r="H60">
+        <v>-0.1742120004092449</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.07996208697033556</v>
+        <v>-0.08772768838867338</v>
       </c>
       <c r="C61">
-        <v>-0.04979509728602444</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.03245018477051287</v>
+      </c>
+      <c r="D61">
+        <v>-0.04760491307007635</v>
+      </c>
+      <c r="E61">
+        <v>-0.01015220630248805</v>
+      </c>
+      <c r="F61">
+        <v>0.007044079674144148</v>
+      </c>
+      <c r="G61">
+        <v>-0.003181523085010009</v>
+      </c>
+      <c r="H61">
+        <v>0.07347061867362492</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.128268168726629</v>
+        <v>-0.1391825244947758</v>
       </c>
       <c r="C62">
-        <v>-0.06867544330013513</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.04311968349657955</v>
+      </c>
+      <c r="D62">
+        <v>-0.02694865276480343</v>
+      </c>
+      <c r="E62">
+        <v>-0.05865461430362619</v>
+      </c>
+      <c r="F62">
+        <v>0.01099368508833168</v>
+      </c>
+      <c r="G62">
+        <v>-0.04117721383205277</v>
+      </c>
+      <c r="H62">
+        <v>0.1468130172728008</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.05369794057091701</v>
+        <v>-0.05215062257627112</v>
       </c>
       <c r="C63">
-        <v>-0.02646587918570932</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.01323954704933787</v>
+      </c>
+      <c r="D63">
+        <v>-0.02275372624576589</v>
+      </c>
+      <c r="E63">
+        <v>0.05249295157891184</v>
+      </c>
+      <c r="F63">
+        <v>-0.00799699130419876</v>
+      </c>
+      <c r="G63">
+        <v>-0.03837105569991189</v>
+      </c>
+      <c r="H63">
+        <v>0.06809164622177591</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1101474353285504</v>
+        <v>-0.1117710874137094</v>
       </c>
       <c r="C64">
-        <v>-0.02928759663744551</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.005508443924489824</v>
+      </c>
+      <c r="D64">
+        <v>-0.04117644605712848</v>
+      </c>
+      <c r="E64">
+        <v>0.03529868738017817</v>
+      </c>
+      <c r="F64">
+        <v>0.04683033846418586</v>
+      </c>
+      <c r="G64">
+        <v>-0.04766041294376476</v>
+      </c>
+      <c r="H64">
+        <v>0.06444548409741761</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1209885684127266</v>
+        <v>-0.1268343095111703</v>
       </c>
       <c r="C65">
-        <v>-0.06008869130102771</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.03672164174448765</v>
+      </c>
+      <c r="D65">
+        <v>-0.004860122912147926</v>
+      </c>
+      <c r="E65">
+        <v>0.001923490540964229</v>
+      </c>
+      <c r="F65">
+        <v>0.06800911829705931</v>
+      </c>
+      <c r="G65">
+        <v>-0.05243818897257005</v>
+      </c>
+      <c r="H65">
+        <v>-0.08779690065889741</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1450188987807399</v>
+        <v>-0.1562155457017013</v>
       </c>
       <c r="C66">
-        <v>-0.07702267514793799</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.04315973620071274</v>
+      </c>
+      <c r="D66">
+        <v>-0.1053213806813895</v>
+      </c>
+      <c r="E66">
+        <v>-0.04597458336113792</v>
+      </c>
+      <c r="F66">
+        <v>0.02106718424433644</v>
+      </c>
+      <c r="G66">
+        <v>-0.04372386731181245</v>
+      </c>
+      <c r="H66">
+        <v>0.1466145081860766</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07345071450134508</v>
+        <v>-0.0816452979160936</v>
       </c>
       <c r="C67">
-        <v>-0.01525405702995829</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.004648787642810535</v>
+      </c>
+      <c r="D67">
+        <v>-0.02702530251915092</v>
+      </c>
+      <c r="E67">
+        <v>0.03126066646918167</v>
+      </c>
+      <c r="F67">
+        <v>0.006918332963549889</v>
+      </c>
+      <c r="G67">
+        <v>0.004002209081721385</v>
+      </c>
+      <c r="H67">
+        <v>0.02678513788955958</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.06013687656132453</v>
+        <v>-0.06293451351799029</v>
       </c>
       <c r="C68">
-        <v>-0.04984015995946747</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.05620682073885257</v>
+      </c>
+      <c r="D68">
+        <v>0.2644669863477726</v>
+      </c>
+      <c r="E68">
+        <v>0.04659992009756273</v>
+      </c>
+      <c r="F68">
+        <v>0.0141992036295887</v>
+      </c>
+      <c r="G68">
+        <v>0.0153892433550116</v>
+      </c>
+      <c r="H68">
+        <v>0.01528213036341404</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05212281676968181</v>
+        <v>-0.05226231217188645</v>
       </c>
       <c r="C69">
-        <v>-0.01915218973160076</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.005584645468652183</v>
+      </c>
+      <c r="D69">
+        <v>-0.0174807422273046</v>
+      </c>
+      <c r="E69">
+        <v>0.02636136326652746</v>
+      </c>
+      <c r="F69">
+        <v>-0.006741054920250756</v>
+      </c>
+      <c r="G69">
+        <v>0.00950124600596204</v>
+      </c>
+      <c r="H69">
+        <v>0.055448998888485</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.005014336975827685</v>
+        <v>-0.02619979058470443</v>
       </c>
       <c r="C70">
-        <v>0.004568017344271197</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.0006032700547734293</v>
+      </c>
+      <c r="D70">
+        <v>0.000253323114995424</v>
+      </c>
+      <c r="E70">
+        <v>-0.02280374924161722</v>
+      </c>
+      <c r="F70">
+        <v>0.02799341949315817</v>
+      </c>
+      <c r="G70">
+        <v>0.02425049649791602</v>
+      </c>
+      <c r="H70">
+        <v>-0.0538302242337025</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.06219345644628467</v>
+        <v>-0.06677495884046587</v>
       </c>
       <c r="C71">
-        <v>-0.05034869848920682</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.05837958202022021</v>
+      </c>
+      <c r="D71">
+        <v>0.2927379715888511</v>
+      </c>
+      <c r="E71">
+        <v>0.04269362796861811</v>
+      </c>
+      <c r="F71">
+        <v>0.04781265114304485</v>
+      </c>
+      <c r="G71">
+        <v>0.002578833949255636</v>
+      </c>
+      <c r="H71">
+        <v>0.02100326100681811</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1404167238172716</v>
+        <v>-0.152107884044126</v>
       </c>
       <c r="C72">
-        <v>-0.06470924198890537</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.03808236287936551</v>
+      </c>
+      <c r="D72">
+        <v>0.009458051056820566</v>
+      </c>
+      <c r="E72">
+        <v>-0.1107894936654345</v>
+      </c>
+      <c r="F72">
+        <v>-0.1563502178258578</v>
+      </c>
+      <c r="G72">
+        <v>-0.1159764632386697</v>
+      </c>
+      <c r="H72">
+        <v>0.01592092298108963</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2655104599195868</v>
+        <v>-0.2849901609247223</v>
       </c>
       <c r="C73">
-        <v>-0.1142109755896803</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.05346465675587368</v>
+      </c>
+      <c r="D73">
+        <v>-0.09708880614098953</v>
+      </c>
+      <c r="E73">
+        <v>-0.2015260237226802</v>
+      </c>
+      <c r="F73">
+        <v>0.1112924664784382</v>
+      </c>
+      <c r="G73">
+        <v>0.2264058139412597</v>
+      </c>
+      <c r="H73">
+        <v>-0.5084059027852231</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.07953408673841462</v>
+        <v>-0.09098341281118426</v>
       </c>
       <c r="C74">
-        <v>-0.07835201662847995</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.05898987293077677</v>
+      </c>
+      <c r="D74">
+        <v>-0.03012131357350109</v>
+      </c>
+      <c r="E74">
+        <v>-0.008181745757591124</v>
+      </c>
+      <c r="F74">
+        <v>-0.01387452994723416</v>
+      </c>
+      <c r="G74">
+        <v>0.02658408631916614</v>
+      </c>
+      <c r="H74">
+        <v>0.1224209356747412</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.09506705126799198</v>
+        <v>-0.1004723283448994</v>
       </c>
       <c r="C75">
-        <v>-0.05345003952514955</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.0280321186543477</v>
+      </c>
+      <c r="D75">
+        <v>-0.009643176918003725</v>
+      </c>
+      <c r="E75">
+        <v>0.009037603118245531</v>
+      </c>
+      <c r="F75">
+        <v>0.03509274176029586</v>
+      </c>
+      <c r="G75">
+        <v>0.004465258084397785</v>
+      </c>
+      <c r="H75">
+        <v>0.1109425721200146</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1287008284029053</v>
+        <v>-0.1382822247392697</v>
       </c>
       <c r="C76">
-        <v>-0.08415855852165487</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.05519289640634949</v>
+      </c>
+      <c r="D76">
+        <v>-0.05473639235009975</v>
+      </c>
+      <c r="E76">
+        <v>0.02242461940303041</v>
+      </c>
+      <c r="F76">
+        <v>0.04460979394398194</v>
+      </c>
+      <c r="G76">
+        <v>-0.009117412814444571</v>
+      </c>
+      <c r="H76">
+        <v>0.1466784959502843</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1195761960829642</v>
+        <v>-0.1139118335019385</v>
       </c>
       <c r="C77">
-        <v>-0.02477980698286683</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.00358838418952092</v>
+      </c>
+      <c r="D77">
+        <v>-0.01613943993384757</v>
+      </c>
+      <c r="E77">
+        <v>0.001582225494155132</v>
+      </c>
+      <c r="F77">
+        <v>0.1686743713851563</v>
+      </c>
+      <c r="G77">
+        <v>-0.8735215690552663</v>
+      </c>
+      <c r="H77">
+        <v>-0.2539927761775639</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.09553993212957489</v>
+        <v>-0.1311560685629893</v>
       </c>
       <c r="C78">
-        <v>-0.0412593319320262</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03327804591697404</v>
+      </c>
+      <c r="D78">
+        <v>-0.08956260257004348</v>
+      </c>
+      <c r="E78">
+        <v>0.06660884353978569</v>
+      </c>
+      <c r="F78">
+        <v>0.0224030166108787</v>
+      </c>
+      <c r="G78">
+        <v>-0.04520341799769072</v>
+      </c>
+      <c r="H78">
+        <v>-0.0693218252361059</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1466664940325951</v>
+        <v>-0.1524560567054785</v>
       </c>
       <c r="C79">
-        <v>-0.08178412161240013</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.04612310180401238</v>
+      </c>
+      <c r="D79">
+        <v>-0.0296205773278684</v>
+      </c>
+      <c r="E79">
+        <v>-0.0154530933392297</v>
+      </c>
+      <c r="F79">
+        <v>0.01017364124538372</v>
+      </c>
+      <c r="G79">
+        <v>0.01407697402713925</v>
+      </c>
+      <c r="H79">
+        <v>0.1639991953514274</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04251566341499557</v>
+        <v>-0.04157937681416369</v>
       </c>
       <c r="C80">
-        <v>-0.01483339999819442</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.005455490245344752</v>
+      </c>
+      <c r="D80">
+        <v>-0.02291745991752943</v>
+      </c>
+      <c r="E80">
+        <v>-0.01170147583169784</v>
+      </c>
+      <c r="F80">
+        <v>-0.01526339203108078</v>
+      </c>
+      <c r="G80">
+        <v>0.03612941809884853</v>
+      </c>
+      <c r="H80">
+        <v>0.04440737614237869</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1176710464370744</v>
+        <v>-0.1214000412985617</v>
       </c>
       <c r="C81">
-        <v>-0.06548320615370797</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.03590994716560633</v>
+      </c>
+      <c r="D81">
+        <v>-0.02724761766371749</v>
+      </c>
+      <c r="E81">
+        <v>0.01468378114292648</v>
+      </c>
+      <c r="F81">
+        <v>0.01910868384190406</v>
+      </c>
+      <c r="G81">
+        <v>0.03041660847993466</v>
+      </c>
+      <c r="H81">
+        <v>0.1772287584600249</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1269079471045644</v>
+        <v>-0.1286504482015206</v>
       </c>
       <c r="C82">
-        <v>-0.07814363320402237</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.0473750003864644</v>
+      </c>
+      <c r="D82">
+        <v>-0.03023603136396834</v>
+      </c>
+      <c r="E82">
+        <v>-0.01197033989045972</v>
+      </c>
+      <c r="F82">
+        <v>0.05390282912978283</v>
+      </c>
+      <c r="G82">
+        <v>0.02613233886033987</v>
+      </c>
+      <c r="H82">
+        <v>0.1768569048116642</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.07846249861077727</v>
+        <v>-0.08668684190051212</v>
       </c>
       <c r="C83">
-        <v>0.001936957013578141</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.01789630325988837</v>
+      </c>
+      <c r="D83">
+        <v>-0.04060083139254862</v>
+      </c>
+      <c r="E83">
+        <v>0.02400377223532275</v>
+      </c>
+      <c r="F83">
+        <v>0.06304974009417073</v>
+      </c>
+      <c r="G83">
+        <v>0.09588108809376733</v>
+      </c>
+      <c r="H83">
+        <v>-0.05119648349153673</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02943708310977979</v>
+        <v>-0.04020739202539662</v>
       </c>
       <c r="C84">
-        <v>-0.02526279682032493</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.01990954514198221</v>
+      </c>
+      <c r="D84">
+        <v>-0.03219326431746357</v>
+      </c>
+      <c r="E84">
+        <v>0.02505651521379294</v>
+      </c>
+      <c r="F84">
+        <v>-0.04966055051845012</v>
+      </c>
+      <c r="G84">
+        <v>0.05616155845632315</v>
+      </c>
+      <c r="H84">
+        <v>0.03109919572248154</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.118422193557582</v>
+        <v>-0.1190487986831329</v>
       </c>
       <c r="C85">
-        <v>-0.06080373845145936</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.03009897956494718</v>
+      </c>
+      <c r="D85">
+        <v>-0.02951678192416501</v>
+      </c>
+      <c r="E85">
+        <v>0.0181691792479045</v>
+      </c>
+      <c r="F85">
+        <v>0.03941915220363816</v>
+      </c>
+      <c r="G85">
+        <v>0.005086951140750777</v>
+      </c>
+      <c r="H85">
+        <v>0.141712412296506</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.05076872815469284</v>
+        <v>-0.05675911714229426</v>
       </c>
       <c r="C86">
-        <v>-0.0307261971518367</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.01922486789184731</v>
+      </c>
+      <c r="D86">
+        <v>-0.0226822685332329</v>
+      </c>
+      <c r="E86">
+        <v>0.05226216385584793</v>
+      </c>
+      <c r="F86">
+        <v>0.0259181030722289</v>
+      </c>
+      <c r="G86">
+        <v>0.00369903117158751</v>
+      </c>
+      <c r="H86">
+        <v>0.02331983221055882</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.121246336122175</v>
+        <v>-0.1227776429020415</v>
       </c>
       <c r="C87">
-        <v>-0.06984006338725575</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.03500092809148971</v>
+      </c>
+      <c r="D87">
+        <v>-0.07511550007220007</v>
+      </c>
+      <c r="E87">
+        <v>0.02014934067757957</v>
+      </c>
+      <c r="F87">
+        <v>0.001473433828217733</v>
+      </c>
+      <c r="G87">
+        <v>-0.1053682067790388</v>
+      </c>
+      <c r="H87">
+        <v>-0.01982490064931228</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05407543780267739</v>
+        <v>-0.06013063606467818</v>
       </c>
       <c r="C88">
-        <v>-0.03185670605878713</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.02014157845433246</v>
+      </c>
+      <c r="D88">
+        <v>-0.02674149465766455</v>
+      </c>
+      <c r="E88">
+        <v>0.0179031194360802</v>
+      </c>
+      <c r="F88">
+        <v>0.005291327065341039</v>
+      </c>
+      <c r="G88">
+        <v>-0.01538248460459085</v>
+      </c>
+      <c r="H88">
+        <v>0.05876893586604313</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08476568294057171</v>
+        <v>-0.09895868310837191</v>
       </c>
       <c r="C89">
-        <v>-0.06673472563751136</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.0774595748733785</v>
+      </c>
+      <c r="D89">
+        <v>0.3360044948326095</v>
+      </c>
+      <c r="E89">
+        <v>0.08310795541639623</v>
+      </c>
+      <c r="F89">
+        <v>0.07630692057704398</v>
+      </c>
+      <c r="G89">
+        <v>0.02113171174103223</v>
+      </c>
+      <c r="H89">
+        <v>0.01289307024700026</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.0735746839399025</v>
+        <v>-0.08306556772055158</v>
       </c>
       <c r="C90">
-        <v>-0.05867378698358941</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.06629490456857783</v>
+      </c>
+      <c r="D90">
+        <v>0.306996715047293</v>
+      </c>
+      <c r="E90">
+        <v>0.06628336555882884</v>
+      </c>
+      <c r="F90">
+        <v>0.01017814523027095</v>
+      </c>
+      <c r="G90">
+        <v>0.002312548753111212</v>
+      </c>
+      <c r="H90">
+        <v>0.01975270461416649</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.08429265108825384</v>
+        <v>-0.08876883720579738</v>
       </c>
       <c r="C91">
-        <v>-0.05422637595584617</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.03322208784083728</v>
+      </c>
+      <c r="D91">
+        <v>-0.03047853927342719</v>
+      </c>
+      <c r="E91">
+        <v>0.01242366452968502</v>
+      </c>
+      <c r="F91">
+        <v>0.002838385020734506</v>
+      </c>
+      <c r="G91">
+        <v>0.04232477795678237</v>
+      </c>
+      <c r="H91">
+        <v>0.072899235196753</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.08147947798132756</v>
+        <v>-0.08936385648166889</v>
       </c>
       <c r="C92">
-        <v>-0.07743146091294105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.08394469942292651</v>
+      </c>
+      <c r="D92">
+        <v>0.342216397295669</v>
+      </c>
+      <c r="E92">
+        <v>0.0585061590344016</v>
+      </c>
+      <c r="F92">
+        <v>0.03295493106299909</v>
+      </c>
+      <c r="G92">
+        <v>-0.002780168461807134</v>
+      </c>
+      <c r="H92">
+        <v>0.01414879465156904</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06614834256855841</v>
+        <v>-0.08105799342397263</v>
       </c>
       <c r="C93">
-        <v>-0.06333909961397631</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.07583375133893477</v>
+      </c>
+      <c r="D93">
+        <v>0.3034367026050258</v>
+      </c>
+      <c r="E93">
+        <v>0.03958091185496105</v>
+      </c>
+      <c r="F93">
+        <v>0.04894876789841719</v>
+      </c>
+      <c r="G93">
+        <v>-0.006258592617714765</v>
+      </c>
+      <c r="H93">
+        <v>-0.003964130760068776</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1331304855735087</v>
+        <v>-0.126982822750011</v>
       </c>
       <c r="C94">
-        <v>-0.057869056822812</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.02022217174944854</v>
+      </c>
+      <c r="D94">
+        <v>-0.04768464698708867</v>
+      </c>
+      <c r="E94">
+        <v>-0.01551545879072777</v>
+      </c>
+      <c r="F94">
+        <v>0.02493999014079267</v>
+      </c>
+      <c r="G94">
+        <v>0.03386263926122818</v>
+      </c>
+      <c r="H94">
+        <v>0.1137716511435537</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1184125420684947</v>
+        <v>-0.1273490232060632</v>
       </c>
       <c r="C95">
-        <v>-0.03855463324282517</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.009917643642214679</v>
+      </c>
+      <c r="D95">
+        <v>-0.05636843786156258</v>
+      </c>
+      <c r="E95">
+        <v>0.003104859035771574</v>
+      </c>
+      <c r="F95">
+        <v>0.04071560438981639</v>
+      </c>
+      <c r="G95">
+        <v>0.02010034902800276</v>
+      </c>
+      <c r="H95">
+        <v>-0.02761610024380088</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2033226163021795</v>
+        <v>-0.2123592099696339</v>
       </c>
       <c r="C97">
-        <v>-0.04679956615671651</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.009453617184888186</v>
+      </c>
+      <c r="D97">
+        <v>0.08909489479725788</v>
+      </c>
+      <c r="E97">
+        <v>-0.2672727749437307</v>
+      </c>
+      <c r="F97">
+        <v>-0.8788052730944376</v>
+      </c>
+      <c r="G97">
+        <v>-0.1101636664364701</v>
+      </c>
+      <c r="H97">
+        <v>-0.02350395466148596</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2463782686147594</v>
+        <v>-0.2720749082735123</v>
       </c>
       <c r="C98">
-        <v>-0.08541745117870789</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.03819417696488981</v>
+      </c>
+      <c r="D98">
+        <v>-0.06177238625758379</v>
+      </c>
+      <c r="E98">
+        <v>-0.139465762428714</v>
+      </c>
+      <c r="F98">
+        <v>0.06808380776493383</v>
+      </c>
+      <c r="G98">
+        <v>0.2848027583570891</v>
+      </c>
+      <c r="H98">
+        <v>-0.2445486428227704</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.457807693910243</v>
+        <v>-0.2836241406706309</v>
       </c>
       <c r="C99">
-        <v>0.8745565513631117</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.938048125311739</v>
+      </c>
+      <c r="D99">
+        <v>0.1227599808575443</v>
+      </c>
+      <c r="E99">
+        <v>0.05637120547953337</v>
+      </c>
+      <c r="F99">
+        <v>0.04257601111798849</v>
+      </c>
+      <c r="G99">
+        <v>0.01425241563383267</v>
+      </c>
+      <c r="H99">
+        <v>0.0594993519499333</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.04071689987942119</v>
+        <v>-0.04771378127613074</v>
       </c>
       <c r="C101">
-        <v>-0.03051251191180158</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.02386788514688084</v>
+      </c>
+      <c r="D101">
+        <v>-0.006440125401422232</v>
+      </c>
+      <c r="E101">
+        <v>0.04768545813172515</v>
+      </c>
+      <c r="F101">
+        <v>0.001562161145239912</v>
+      </c>
+      <c r="G101">
+        <v>-0.002393972128575086</v>
+      </c>
+      <c r="H101">
+        <v>0.08458988248422421</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
